--- a/CAD/FINAL design/Bill of Materials.xlsx
+++ b/CAD/FINAL design/Bill of Materials.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu.sharepoint.com/sites/Course_43019_design_in_mechanical_and_mechatronic_-4fVJuN6RM5oxU-P29-AutonomousSteeri/Shared Documents/T21 - P29 - Autonomous Steering Mechanism/Handover/CAD/FINAL design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{6A116B7F-D3EA-3A48-A93D-16D0B49F769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A9C3626-6721-4D6F-8AC9-43FAFD9540F8}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{6A116B7F-D3EA-3A48-A93D-16D0B49F769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B973EBFA-2B4E-B44A-B4D6-C2382896D82D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{46B568DE-0E68-0547-AA96-970C1F7DCCCF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{46B568DE-0E68-0547-AA96-970C1F7DCCCF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BOM!$A$1:$L$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -615,11 +618,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FABBB7-7BB8-1C49-856D-37ABC5E65E2B}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -635,7 +638,7 @@
     <col min="12" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -673,7 +676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -709,7 +712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -748,7 +751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -787,7 +790,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -823,7 +826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -859,7 +862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -895,7 +898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -909,7 +912,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
@@ -940,29 +943,14 @@
     <hyperlink ref="L5" r:id="rId8" xr:uid="{9D378626-3DCC-DD41-A52E-0E998DF910D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fdbf55cf-10f0-49fa-a617-5a903818246b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD9EDA646FF47745A6EE457436789FF5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5b76eae9aa6904517c9fa58b81db482">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdbf55cf-10f0-49fa-a617-5a903818246b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="007becb5391e6d00c76f4a70b2d80428" ns2:_="">
     <xsd:import namespace="fdbf55cf-10f0-49fa-a617-5a903818246b"/>
@@ -1152,31 +1140,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A6B69-5B4D-4D9D-947C-DC34C27CEAC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fdbf55cf-10f0-49fa-a617-5a903818246b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62C0F74A-1F3D-4146-A4C4-DBB45AF3161E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fdbf55cf-10f0-49fa-a617-5a903818246b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE43639-84AF-4508-92E8-385B6FA3CA58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1192,4 +1175,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62C0F74A-1F3D-4146-A4C4-DBB45AF3161E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A6B69-5B4D-4D9D-947C-DC34C27CEAC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="fdbf55cf-10f0-49fa-a617-5a903818246b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>